--- a/algorithms result.xlsx
+++ b/algorithms result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ASUS/Library/CloudStorage/OneDrive-Personal/CzB/6felev/onlab/time-series-ensemble-segmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE938499-2C73-7547-A592-683F927AAC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E86A75-96E7-D846-AD91-80689B3BEBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{FCED6F65-BE14-B441-92CB-189674FEB59C}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
-  <si>
-    <t>Algoritmus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Covering</t>
   </si>
@@ -77,9 +74,6 @@
     <t>TSSB dataset</t>
   </si>
   <si>
-    <t>0.7487</t>
-  </si>
-  <si>
     <t>0.7235</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>0.5246</t>
   </si>
   <si>
-    <t>0.6464</t>
-  </si>
-  <si>
     <t>0.6164</t>
   </si>
   <si>
@@ -132,6 +123,60 @@
   </si>
   <si>
     <t>F1 score</t>
+  </si>
+  <si>
+    <t>0.6764</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>0.4670</t>
+  </si>
+  <si>
+    <t>0.8385</t>
+  </si>
+  <si>
+    <t>0.4472</t>
+  </si>
+  <si>
+    <t>0.5962</t>
+  </si>
+  <si>
+    <t>0.5225</t>
+  </si>
+  <si>
+    <t>0.3663</t>
+  </si>
+  <si>
+    <t>0.6368</t>
+  </si>
+  <si>
+    <t>0.5492</t>
+  </si>
+  <si>
+    <t>0.4395</t>
+  </si>
+  <si>
+    <t>0.8890</t>
+  </si>
+  <si>
+    <t>0.7705</t>
+  </si>
+  <si>
+    <t>0.6560</t>
+  </si>
+  <si>
+    <t>0.6376</t>
+  </si>
+  <si>
+    <t>0.4233</t>
+  </si>
+  <si>
+    <t>0.4260</t>
+  </si>
+  <si>
+    <t>0.7504</t>
   </si>
 </sst>
 </file>
@@ -163,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -201,15 +246,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,6 +311,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -556,7 +661,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,149 +673,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/algorithms result.xlsx
+++ b/algorithms result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ASUS/Library/CloudStorage/OneDrive-Personal/CzB/6felev/onlab/time-series-ensemble-segmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E86A75-96E7-D846-AD91-80689B3BEBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C8358-A460-0146-B796-FDABB480ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{FCED6F65-BE14-B441-92CB-189674FEB59C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Covering</t>
   </si>
@@ -122,9 +122,6 @@
     <t>0.5955</t>
   </si>
   <si>
-    <t>F1 score</t>
-  </si>
-  <si>
     <t>0.6764</t>
   </si>
   <si>
@@ -177,6 +174,81 @@
   </si>
   <si>
     <t>0.7504</t>
+  </si>
+  <si>
+    <t>weighted F1 score</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
+    <t>TSSB</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>PELT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.7426</t>
+  </si>
+  <si>
+    <t>0.4423</t>
+  </si>
+  <si>
+    <t>0.3520</t>
+  </si>
+  <si>
+    <t>0.8923</t>
+  </si>
+  <si>
+    <t>0.4158</t>
+  </si>
+  <si>
+    <t>0.3951</t>
+  </si>
+  <si>
+    <t>0.4876</t>
+  </si>
+  <si>
+    <t>0.6664</t>
+  </si>
+  <si>
+    <t>0.5772</t>
+  </si>
+  <si>
+    <t>0.7066</t>
+  </si>
+  <si>
+    <t>0.6483</t>
+  </si>
+  <si>
+    <t>0.7287</t>
+  </si>
+  <si>
+    <t>0.5053</t>
+  </si>
+  <si>
+    <t>0.4505</t>
+  </si>
+  <si>
+    <t>0.7402</t>
+  </si>
+  <si>
+    <t>0.4425</t>
+  </si>
+  <si>
+    <t>0.6820</t>
+  </si>
+  <si>
+    <t>0.6029</t>
+  </si>
+  <si>
+    <t>0.7121</t>
   </si>
 </sst>
 </file>
@@ -208,7 +280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -295,13 +367,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,19 +406,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -658,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AFB4AC-FC53-084B-BE97-609EF9719264}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,188 +756,278 @@
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="E1" s="14"/>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="F7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>32</v>
+      <c r="F11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
